--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/30/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/30/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.41113</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3411.13</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124001</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.09328</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4093.28</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155032</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.86924</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>4869.24</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186008</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.47667</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>5476.67</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216984</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.1007</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>6100.7</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247912</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>6.655760000000001</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>6655.76</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278837</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>7.05358</v>
+        <v>9.981200000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>7053.58</v>
+        <v>9981.200000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309762</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>7.443180000000001</v>
+        <v>10.8701</v>
       </c>
       <c r="C12" t="n">
-        <v>7443.18</v>
+        <v>10870.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340688</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>7.62428</v>
+        <v>11.6461</v>
       </c>
       <c r="C13" t="n">
-        <v>7624.28</v>
+        <v>11646.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371613</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>7.66755</v>
+        <v>12.3682</v>
       </c>
       <c r="C14" t="n">
-        <v>7667.55</v>
+        <v>12368.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402533</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>7.641529999999999</v>
+        <v>12.9354</v>
       </c>
       <c r="C15" t="n">
-        <v>7641.53</v>
+        <v>12935.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433458</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>7.60845</v>
+        <v>13.1161</v>
       </c>
       <c r="C16" t="n">
-        <v>7608.45</v>
+        <v>13116.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464383</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>7.57331</v>
+        <v>13.1678</v>
       </c>
       <c r="C17" t="n">
-        <v>7573.31</v>
+        <v>13167.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495308</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>7.53687</v>
+        <v>13.1648</v>
       </c>
       <c r="C18" t="n">
-        <v>7536.87</v>
+        <v>13164.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526233</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>7.498760000000001</v>
+        <v>13.1634</v>
       </c>
       <c r="C19" t="n">
-        <v>7498.76</v>
+        <v>13163.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557158</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>7.4584</v>
+        <v>13.1601</v>
       </c>
       <c r="C20" t="n">
-        <v>7458.4</v>
+        <v>13160.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588083</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>7.41072</v>
+        <v>13.1533</v>
       </c>
       <c r="C21" t="n">
-        <v>7410.72</v>
+        <v>13153.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619125</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>7.36337</v>
+        <v>13.144</v>
       </c>
       <c r="C22" t="n">
-        <v>7363.37</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650298</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>7.30796</v>
+        <v>13.132</v>
       </c>
       <c r="C23" t="n">
-        <v>7307.96</v>
+        <v>13132</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6814750000000001</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>7.25288</v>
+        <v>13.1164</v>
       </c>
       <c r="C24" t="n">
-        <v>7252.88</v>
+        <v>13116.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126479999999999</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>7.190939999999999</v>
+        <v>13.0991</v>
       </c>
       <c r="C25" t="n">
-        <v>7190.94</v>
+        <v>13099.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743824</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>7.12966</v>
+        <v>13.079</v>
       </c>
       <c r="C26" t="n">
-        <v>7129.66</v>
+        <v>13079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774997</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>7.061770000000001</v>
+        <v>13.0578</v>
       </c>
       <c r="C27" t="n">
-        <v>7061.77</v>
+        <v>13057.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8061700000000001</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>6.993</v>
+        <v>13.0347</v>
       </c>
       <c r="C28" t="n">
-        <v>6993</v>
+        <v>13034.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837347</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>6.92007</v>
+        <v>13.0105</v>
       </c>
       <c r="C29" t="n">
-        <v>6920.07</v>
+        <v>13010.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868519</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>6.84363</v>
+        <v>12.9847</v>
       </c>
       <c r="C30" t="n">
-        <v>6843.63</v>
+        <v>12984.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899692</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>6.76582</v>
+        <v>12.9567</v>
       </c>
       <c r="C31" t="n">
-        <v>6765.82</v>
+        <v>12956.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9308689999999999</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>6.68228</v>
+        <v>12.9264</v>
       </c>
       <c r="C32" t="n">
-        <v>6682.28</v>
+        <v>12926.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962041</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>6.59929</v>
+        <v>12.8946</v>
       </c>
       <c r="C33" t="n">
-        <v>6599.29</v>
+        <v>12894.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993214</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>6.50967</v>
+        <v>12.8608</v>
       </c>
       <c r="C34" t="n">
-        <v>6509.67</v>
+        <v>12860.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02453</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>6.420850000000001</v>
+        <v>12.8254</v>
       </c>
       <c r="C35" t="n">
-        <v>6420.85</v>
+        <v>12825.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05585</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>3.88511</v>
+        <v>12.788</v>
       </c>
       <c r="C36" t="n">
-        <v>3885.11</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08677</v>
+        <v>1.08619</v>
       </c>
       <c r="B37" t="n">
-        <v>4.6812</v>
+        <v>12.7484</v>
       </c>
       <c r="C37" t="n">
-        <v>4681.2</v>
+        <v>12748.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11794</v>
+        <v>1.11716</v>
       </c>
       <c r="B38" t="n">
-        <v>6.04781</v>
+        <v>12.7065</v>
       </c>
       <c r="C38" t="n">
-        <v>6047.81</v>
+        <v>12706.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14882</v>
+        <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>5.79512</v>
+        <v>12.6621</v>
       </c>
       <c r="C39" t="n">
-        <v>5795.12</v>
+        <v>12662.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17989</v>
+        <v>1.1791</v>
       </c>
       <c r="B40" t="n">
-        <v>5.8518</v>
+        <v>12.6155</v>
       </c>
       <c r="C40" t="n">
-        <v>5851.8</v>
+        <v>12615.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21091</v>
+        <v>1.21007</v>
       </c>
       <c r="B41" t="n">
-        <v>5.8427</v>
+        <v>12.5665</v>
       </c>
       <c r="C41" t="n">
-        <v>5842.7</v>
+        <v>12566.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24207</v>
+        <v>1.24103</v>
       </c>
       <c r="B42" t="n">
-        <v>5.741689999999999</v>
+        <v>12.5145</v>
       </c>
       <c r="C42" t="n">
-        <v>5741.69</v>
+        <v>12514.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27324</v>
+        <v>1.272</v>
       </c>
       <c r="B43" t="n">
-        <v>5.686680000000001</v>
+        <v>12.4603</v>
       </c>
       <c r="C43" t="n">
-        <v>5686.68</v>
+        <v>12460.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.3044</v>
+        <v>1.30297</v>
       </c>
       <c r="B44" t="n">
-        <v>5.57209</v>
+        <v>12.4036</v>
       </c>
       <c r="C44" t="n">
-        <v>5572.09</v>
+        <v>12403.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33557</v>
+        <v>1.33394</v>
       </c>
       <c r="B45" t="n">
-        <v>5.47038</v>
+        <v>12.3443</v>
       </c>
       <c r="C45" t="n">
-        <v>5470.38</v>
+        <v>12344.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36673</v>
+        <v>1.3649</v>
       </c>
       <c r="B46" t="n">
-        <v>5.39205</v>
+        <v>12.2819</v>
       </c>
       <c r="C46" t="n">
-        <v>5392.05</v>
+        <v>12281.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39789</v>
+        <v>1.39584</v>
       </c>
       <c r="B47" t="n">
-        <v>5.23075</v>
+        <v>12.2164</v>
       </c>
       <c r="C47" t="n">
-        <v>5230.75</v>
+        <v>12216.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42901</v>
+        <v>1.42685</v>
       </c>
       <c r="B48" t="n">
-        <v>5.11242</v>
+        <v>12.1478</v>
       </c>
       <c r="C48" t="n">
-        <v>5112.42</v>
+        <v>12147.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45989</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>4.98364</v>
+        <v>12.0763</v>
       </c>
       <c r="C49" t="n">
-        <v>4983.64</v>
+        <v>12076.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49101</v>
+        <v>1.48891</v>
       </c>
       <c r="B50" t="n">
-        <v>4.93991</v>
+        <v>12.0012</v>
       </c>
       <c r="C50" t="n">
-        <v>4939.91</v>
+        <v>12001.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52202</v>
+        <v>1.51967</v>
       </c>
       <c r="B51" t="n">
-        <v>4.82137</v>
+        <v>11.9235</v>
       </c>
       <c r="C51" t="n">
-        <v>4821.37</v>
+        <v>11923.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55292</v>
+        <v>1.5509</v>
       </c>
       <c r="B52" t="n">
-        <v>4.70838</v>
+        <v>11.8414</v>
       </c>
       <c r="C52" t="n">
-        <v>4708.38</v>
+        <v>11841.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58418</v>
+        <v>1.58182</v>
       </c>
       <c r="B53" t="n">
-        <v>4.598710000000001</v>
+        <v>11.7563</v>
       </c>
       <c r="C53" t="n">
-        <v>4598.71</v>
+        <v>11756.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61487</v>
+        <v>1.6128</v>
       </c>
       <c r="B54" t="n">
-        <v>4.502470000000001</v>
+        <v>11.6678</v>
       </c>
       <c r="C54" t="n">
-        <v>4502.47</v>
+        <v>11667.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64615</v>
+        <v>1.64388</v>
       </c>
       <c r="B55" t="n">
-        <v>4.44729</v>
+        <v>11.575</v>
       </c>
       <c r="C55" t="n">
-        <v>4447.29</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67715</v>
+        <v>1.67477</v>
       </c>
       <c r="B56" t="n">
-        <v>4.36876</v>
+        <v>11.4787</v>
       </c>
       <c r="C56" t="n">
-        <v>4368.76</v>
+        <v>11478.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70778</v>
+        <v>1.70581</v>
       </c>
       <c r="B57" t="n">
-        <v>4.25534</v>
+        <v>11.3776</v>
       </c>
       <c r="C57" t="n">
-        <v>4255.34</v>
+        <v>11377.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73934</v>
+        <v>1.73691</v>
       </c>
       <c r="B58" t="n">
-        <v>4.19448</v>
+        <v>11.2716</v>
       </c>
       <c r="C58" t="n">
-        <v>4194.48</v>
+        <v>11271.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77022</v>
+        <v>1.76765</v>
       </c>
       <c r="B59" t="n">
-        <v>4.130640000000001</v>
+        <v>11.1622</v>
       </c>
       <c r="C59" t="n">
-        <v>4130.64</v>
+        <v>11162.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80063</v>
+        <v>1.79893</v>
       </c>
       <c r="B60" t="n">
-        <v>4.05068</v>
+        <v>11.0474</v>
       </c>
       <c r="C60" t="n">
-        <v>4050.68</v>
+        <v>11047.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83228</v>
+        <v>1.82974</v>
       </c>
       <c r="B61" t="n">
-        <v>4.00291</v>
+        <v>10.9301</v>
       </c>
       <c r="C61" t="n">
-        <v>4002.91</v>
+        <v>10930.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86344</v>
+        <v>1.86085</v>
       </c>
       <c r="B62" t="n">
-        <v>3.93489</v>
+        <v>10.8078</v>
       </c>
       <c r="C62" t="n">
-        <v>3934.89</v>
+        <v>10807.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89385</v>
+        <v>1.89187</v>
       </c>
       <c r="B63" t="n">
-        <v>3.87991</v>
+        <v>10.682</v>
       </c>
       <c r="C63" t="n">
-        <v>3879.91</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92502</v>
+        <v>1.92279</v>
       </c>
       <c r="B64" t="n">
-        <v>3.82587</v>
+        <v>10.5521</v>
       </c>
       <c r="C64" t="n">
-        <v>3825.87</v>
+        <v>10552.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95651</v>
+        <v>1.95387</v>
       </c>
       <c r="B65" t="n">
-        <v>3.78201</v>
+        <v>10.4172</v>
       </c>
       <c r="C65" t="n">
-        <v>3782.01</v>
+        <v>10417.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98723</v>
+        <v>1.98477</v>
       </c>
       <c r="B66" t="n">
-        <v>3.72559</v>
+        <v>10.2792</v>
       </c>
       <c r="C66" t="n">
-        <v>3725.59</v>
+        <v>10279.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01786</v>
+        <v>2.01591</v>
       </c>
       <c r="B67" t="n">
-        <v>3.71373</v>
+        <v>10.1364</v>
       </c>
       <c r="C67" t="n">
-        <v>3713.73</v>
+        <v>10136.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04919</v>
+        <v>2.0469</v>
       </c>
       <c r="B68" t="n">
-        <v>3.65107</v>
+        <v>9.99207</v>
       </c>
       <c r="C68" t="n">
-        <v>3651.07</v>
+        <v>9992.07</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08028</v>
+        <v>2.07786</v>
       </c>
       <c r="B69" t="n">
-        <v>3.60787</v>
+        <v>9.843290000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>3607.87</v>
+        <v>9843.290000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11134</v>
+        <v>2.10892</v>
       </c>
       <c r="B70" t="n">
-        <v>3.57005</v>
+        <v>9.693709999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>3570.05</v>
+        <v>9693.709999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14242</v>
+        <v>2.13976</v>
       </c>
       <c r="B71" t="n">
-        <v>3.56591</v>
+        <v>9.54096</v>
       </c>
       <c r="C71" t="n">
-        <v>3565.91</v>
+        <v>9540.959999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17256</v>
+        <v>2.1711</v>
       </c>
       <c r="B72" t="n">
-        <v>3.54072</v>
+        <v>9.38592</v>
       </c>
       <c r="C72" t="n">
-        <v>3540.72</v>
+        <v>9385.92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20406</v>
+        <v>2.20137</v>
       </c>
       <c r="B73" t="n">
-        <v>3.48102</v>
+        <v>9.231850000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>3481.02</v>
+        <v>9231.85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23557</v>
+        <v>2.23319</v>
       </c>
       <c r="B74" t="n">
-        <v>3.44029</v>
+        <v>9.0708</v>
       </c>
       <c r="C74" t="n">
-        <v>3440.29</v>
+        <v>9070.799999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26707</v>
+        <v>2.26359</v>
       </c>
       <c r="B75" t="n">
-        <v>3.42397</v>
+        <v>8.912030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3423.97</v>
+        <v>8912.030000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2989</v>
+        <v>2.29492</v>
       </c>
       <c r="B76" t="n">
-        <v>3.41007</v>
+        <v>8.75173</v>
       </c>
       <c r="C76" t="n">
-        <v>3410.07</v>
+        <v>8751.73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3302</v>
+        <v>2.32575</v>
       </c>
       <c r="B77" t="n">
-        <v>3.39103</v>
+        <v>8.58934</v>
       </c>
       <c r="C77" t="n">
-        <v>3391.03</v>
+        <v>8589.34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36092</v>
+        <v>2.35647</v>
       </c>
       <c r="B78" t="n">
-        <v>3.37594</v>
+        <v>8.429549999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>3375.94</v>
+        <v>8429.549999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39164</v>
+        <v>2.38768</v>
       </c>
       <c r="B79" t="n">
-        <v>3.37515</v>
+        <v>8.267049999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>3375.15</v>
+        <v>8267.049999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42236</v>
+        <v>2.41876</v>
       </c>
       <c r="B80" t="n">
-        <v>3.38633</v>
+        <v>8.10308</v>
       </c>
       <c r="C80" t="n">
-        <v>3386.33</v>
+        <v>8103.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45308</v>
+        <v>2.44985</v>
       </c>
       <c r="B81" t="n">
-        <v>3.39334</v>
+        <v>7.943630000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>3393.34</v>
+        <v>7943.63</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4838</v>
+        <v>2.47979</v>
       </c>
       <c r="B82" t="n">
-        <v>3.36811</v>
+        <v>7.788</v>
       </c>
       <c r="C82" t="n">
-        <v>3368.11</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51265</v>
+        <v>2.50905</v>
       </c>
       <c r="B83" t="n">
-        <v>3.32352</v>
+        <v>7.637890000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>3323.52</v>
+        <v>7637.89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54081</v>
+        <v>2.53914</v>
       </c>
       <c r="B84" t="n">
-        <v>3.34958</v>
+        <v>7.488939999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>3349.58</v>
+        <v>7488.94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56897</v>
+        <v>2.572</v>
       </c>
       <c r="B85" t="n">
-        <v>3.3334</v>
+        <v>7.326960000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>3333.4</v>
+        <v>7326.96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59713</v>
+        <v>2.604</v>
       </c>
       <c r="B86" t="n">
-        <v>3.30562</v>
+        <v>7.171430000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>3305.62</v>
+        <v>7171.43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62608</v>
+        <v>2.636</v>
       </c>
       <c r="B87" t="n">
-        <v>3.32693</v>
+        <v>7.02249</v>
       </c>
       <c r="C87" t="n">
-        <v>3326.93</v>
+        <v>7022.49</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66014</v>
+        <v>2.66781</v>
       </c>
       <c r="B88" t="n">
-        <v>3.27213</v>
+        <v>6.879090000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>3272.13</v>
+        <v>6879.09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69533</v>
+        <v>2.69767</v>
       </c>
       <c r="B89" t="n">
-        <v>3.27646</v>
+        <v>6.74176</v>
       </c>
       <c r="C89" t="n">
-        <v>3276.46</v>
+        <v>6741.76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72973</v>
+        <v>2.72803</v>
       </c>
       <c r="B90" t="n">
-        <v>3.24832</v>
+        <v>6.62232</v>
       </c>
       <c r="C90" t="n">
-        <v>3248.32</v>
+        <v>6622.32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76198</v>
+        <v>2.75619</v>
       </c>
       <c r="B91" t="n">
-        <v>3.21498</v>
+        <v>6.52388</v>
       </c>
       <c r="C91" t="n">
-        <v>3214.98</v>
+        <v>6523.88</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79398</v>
+        <v>2.78435</v>
       </c>
       <c r="B92" t="n">
-        <v>3.22789</v>
+        <v>6.4385</v>
       </c>
       <c r="C92" t="n">
-        <v>3227.89</v>
+        <v>6438.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82598</v>
+        <v>2.81377</v>
       </c>
       <c r="B93" t="n">
-        <v>3.2118</v>
+        <v>6.36332</v>
       </c>
       <c r="C93" t="n">
-        <v>3211.8</v>
+        <v>6363.32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85798</v>
+        <v>2.84897</v>
       </c>
       <c r="B94" t="n">
-        <v>3.17925</v>
+        <v>6.28716</v>
       </c>
       <c r="C94" t="n">
-        <v>3179.25</v>
+        <v>6287.16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88998</v>
+        <v>2.88403</v>
       </c>
       <c r="B95" t="n">
-        <v>3.15322</v>
+        <v>6.217000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>3153.22</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92198</v>
+        <v>2.91603</v>
       </c>
       <c r="B96" t="n">
-        <v>3.13412</v>
+        <v>6.15454</v>
       </c>
       <c r="C96" t="n">
-        <v>3134.12</v>
+        <v>6154.54</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95398</v>
+        <v>2.94803</v>
       </c>
       <c r="B97" t="n">
-        <v>3.11279</v>
+        <v>6.09636</v>
       </c>
       <c r="C97" t="n">
-        <v>3112.79</v>
+        <v>6096.36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98598</v>
+        <v>2.98003</v>
       </c>
       <c r="B98" t="n">
-        <v>3.10037</v>
+        <v>6.03808</v>
       </c>
       <c r="C98" t="n">
-        <v>3100.37</v>
+        <v>6038.08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01726</v>
+        <v>3.01203</v>
       </c>
       <c r="B99" t="n">
-        <v>3.09456</v>
+        <v>5.98908</v>
       </c>
       <c r="C99" t="n">
-        <v>3094.56</v>
+        <v>5989.08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04637</v>
+        <v>3.04403</v>
       </c>
       <c r="B100" t="n">
-        <v>3.08716</v>
+        <v>5.93708</v>
       </c>
       <c r="C100" t="n">
-        <v>3087.16</v>
+        <v>5937.08</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07519</v>
+        <v>3.07603</v>
       </c>
       <c r="B101" t="n">
-        <v>3.07309</v>
+        <v>5.88327</v>
       </c>
       <c r="C101" t="n">
-        <v>3073.09</v>
+        <v>5883.27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10399</v>
+        <v>3.10563</v>
       </c>
       <c r="B102" t="n">
-        <v>3.03881</v>
+        <v>5.83178</v>
       </c>
       <c r="C102" t="n">
-        <v>3038.81</v>
+        <v>5831.78</v>
       </c>
     </row>
   </sheetData>
